--- a/results/tinybert/dilemma/confidence/0.15/avg_scores.xlsx
+++ b/results/tinybert/dilemma/confidence/0.15/avg_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="312">
   <si>
     <t>negative</t>
   </si>
@@ -43,742 +43,910 @@
     <t>name</t>
   </si>
   <si>
-    <t>minor</t>
-  </si>
-  <si>
-    <t>needles</t>
+    <t>cruel</t>
+  </si>
+  <si>
+    <t>annoying</t>
+  </si>
+  <si>
+    <t>passive</t>
+  </si>
+  <si>
+    <t>frustrating</t>
+  </si>
+  <si>
+    <t>unfortunate</t>
+  </si>
+  <si>
+    <t>excessive</t>
+  </si>
+  <si>
+    <t>terribly</t>
+  </si>
+  <si>
+    <t>disappointing</t>
+  </si>
+  <si>
+    <t>outdated</t>
+  </si>
+  <si>
+    <t>harmful</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>angry</t>
+  </si>
+  <si>
+    <t>problematic</t>
+  </si>
+  <si>
+    <t>disgusted</t>
+  </si>
+  <si>
+    <t>worthless</t>
+  </si>
+  <si>
+    <t>shitty</t>
+  </si>
+  <si>
+    <t>painful</t>
+  </si>
+  <si>
+    <t>sucks</t>
+  </si>
+  <si>
+    <t>awful</t>
+  </si>
+  <si>
+    <t>helpless</t>
+  </si>
+  <si>
+    <t>disgusting</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>lazy</t>
+  </si>
+  <si>
+    <t>ominous</t>
+  </si>
+  <si>
+    <t>ashamed</t>
+  </si>
+  <si>
+    <t>pathetic</t>
+  </si>
+  <si>
+    <t>terrible</t>
+  </si>
+  <si>
+    <t>filthy</t>
+  </si>
+  <si>
+    <t>dreadful</t>
+  </si>
+  <si>
+    <t>unnecessary</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>differently</t>
+  </si>
+  <si>
+    <t>nasty</t>
+  </si>
+  <si>
+    <t>violating</t>
+  </si>
+  <si>
+    <t>horrified</t>
+  </si>
+  <si>
+    <t>unwilling</t>
+  </si>
+  <si>
+    <t>meaningless</t>
+  </si>
+  <si>
+    <t>unlikely</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>vicious</t>
+  </si>
+  <si>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>unfortunately</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>hated</t>
+  </si>
+  <si>
+    <t>racist</t>
+  </si>
+  <si>
+    <t>harsh</t>
+  </si>
+  <si>
+    <t>destructive</t>
+  </si>
+  <si>
+    <t>toxic</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>ridiculous</t>
+  </si>
+  <si>
+    <t>rarely</t>
+  </si>
+  <si>
+    <t>destroying</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>badly</t>
+  </si>
+  <si>
+    <t>struggling</t>
+  </si>
+  <si>
+    <t>ugly</t>
+  </si>
+  <si>
+    <t>eerie</t>
+  </si>
+  <si>
+    <t>strange</t>
+  </si>
+  <si>
+    <t>dangerously</t>
+  </si>
+  <si>
+    <t>freaking</t>
+  </si>
+  <si>
+    <t>extreme</t>
+  </si>
+  <si>
+    <t>heavy</t>
+  </si>
+  <si>
+    <t>sexual</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>scary</t>
   </si>
   <si>
     <t>guilty</t>
   </si>
   <si>
-    <t>unfortunate</t>
-  </si>
-  <si>
-    <t>sinister</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>ashamed</t>
-  </si>
-  <si>
-    <t>lazy</t>
-  </si>
-  <si>
-    <t>harmful</t>
-  </si>
-  <si>
-    <t>tired</t>
-  </si>
-  <si>
-    <t>passive</t>
-  </si>
-  <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>hated</t>
-  </si>
-  <si>
-    <t>painful</t>
-  </si>
-  <si>
-    <t>disgusting</t>
-  </si>
-  <si>
-    <t>nasty</t>
-  </si>
-  <si>
-    <t>downward</t>
-  </si>
-  <si>
-    <t>pathetic</t>
-  </si>
-  <si>
-    <t>ominous</t>
-  </si>
-  <si>
-    <t>shitty</t>
-  </si>
-  <si>
-    <t>accusing</t>
-  </si>
-  <si>
-    <t>annoying</t>
-  </si>
-  <si>
-    <t>sucks</t>
-  </si>
-  <si>
-    <t>frustrating</t>
-  </si>
-  <si>
-    <t>dangerously</t>
-  </si>
-  <si>
-    <t>excessive</t>
-  </si>
-  <si>
-    <t>worthless</t>
-  </si>
-  <si>
-    <t>nonsense</t>
-  </si>
-  <si>
-    <t>cruel</t>
-  </si>
-  <si>
-    <t>terrible</t>
-  </si>
-  <si>
-    <t>filthy</t>
-  </si>
-  <si>
-    <t>suspicious</t>
-  </si>
-  <si>
-    <t>outrageous</t>
-  </si>
-  <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>helpless</t>
-  </si>
-  <si>
-    <t>severely</t>
-  </si>
-  <si>
-    <t>awful</t>
-  </si>
-  <si>
-    <t>unfortunately</t>
-  </si>
-  <si>
-    <t>outdated</t>
-  </si>
-  <si>
-    <t>ignoring</t>
-  </si>
-  <si>
-    <t>dreadful</t>
-  </si>
-  <si>
-    <t>horrified</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>meaningless</t>
-  </si>
-  <si>
-    <t>pointless</t>
-  </si>
-  <si>
-    <t>unlikely</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>badly</t>
-  </si>
-  <si>
-    <t>unnecessary</t>
-  </si>
-  <si>
-    <t>destroying</t>
-  </si>
-  <si>
-    <t>wrong</t>
+    <t>shocking</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>dumb</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>frightening</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>overly</t>
   </si>
   <si>
     <t>dirty</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>corrupt</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>racist</t>
-  </si>
-  <si>
-    <t>destructive</t>
-  </si>
-  <si>
-    <t>harsh</t>
-  </si>
-  <si>
-    <t>harder</t>
-  </si>
-  <si>
-    <t>fails</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>vicious</t>
-  </si>
-  <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>ridiculous</t>
+    <t>false</t>
+  </si>
+  <si>
+    <t>slowly</t>
+  </si>
+  <si>
+    <t>ruining</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>slow</t>
+  </si>
+  <si>
+    <t>private</t>
   </si>
   <si>
     <t>fucking</t>
   </si>
   <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>terribly</t>
-  </si>
-  <si>
-    <t>struggling</t>
-  </si>
-  <si>
-    <t>worrying</t>
-  </si>
-  <si>
-    <t>ugly</t>
-  </si>
-  <si>
-    <t>angry</t>
-  </si>
-  <si>
-    <t>problematic</t>
-  </si>
-  <si>
-    <t>disgusted</t>
-  </si>
-  <si>
-    <t>broke</t>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>sad</t>
   </si>
   <si>
     <t>confusing</t>
   </si>
   <si>
-    <t>bleak</t>
-  </si>
-  <si>
-    <t>heavy</t>
-  </si>
-  <si>
-    <t>eerie</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>frightening</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>shocking</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>failed</t>
-  </si>
-  <si>
     <t>serious</t>
   </si>
   <si>
-    <t>bad</t>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>disabled</t>
+  </si>
+  <si>
+    <t>silly</t>
+  </si>
+  <si>
+    <t>disagree</t>
+  </si>
+  <si>
+    <t>afraid</t>
+  </si>
+  <si>
+    <t>ass</t>
+  </si>
+  <si>
+    <t>crap</t>
+  </si>
+  <si>
+    <t>anxious</t>
+  </si>
+  <si>
+    <t>against</t>
+  </si>
+  <si>
+    <t>less</t>
   </si>
   <si>
     <t>shocked</t>
   </si>
   <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>overly</t>
-  </si>
-  <si>
-    <t>sad</t>
-  </si>
-  <si>
-    <t>slow</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>annoyed</t>
-  </si>
-  <si>
-    <t>bitter</t>
-  </si>
-  <si>
-    <t>artificial</t>
-  </si>
-  <si>
-    <t>slowly</t>
-  </si>
-  <si>
-    <t>ruining</t>
-  </si>
-  <si>
-    <t>private</t>
-  </si>
-  <si>
-    <t>girls</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>disagree</t>
-  </si>
-  <si>
-    <t>dumb</t>
-  </si>
-  <si>
-    <t>ass</t>
-  </si>
-  <si>
-    <t>crap</t>
-  </si>
-  <si>
-    <t>ironically</t>
+    <t>chilling</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>few</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>late</t>
+  </si>
+  <si>
+    <t>little</t>
   </si>
   <si>
     <t>down</t>
   </si>
   <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>black</t>
-  </si>
-  <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
     <t>half</t>
   </si>
   <si>
-    <t>drug</t>
-  </si>
-  <si>
-    <t>chilling</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>afraid</t>
-  </si>
-  <si>
     <t>long</t>
   </si>
   <si>
-    <t>few</t>
-  </si>
-  <si>
-    <t>past</t>
-  </si>
-  <si>
-    <t>least</t>
+    <t>only</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>impressive</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>delighted</t>
+  </si>
+  <si>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>refreshing</t>
+  </si>
+  <si>
+    <t>splendid</t>
+  </si>
+  <si>
+    <t>became</t>
+  </si>
+  <si>
+    <t>easier</t>
+  </si>
+  <si>
+    <t>worthy</t>
+  </si>
+  <si>
+    <t>metric</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>clarity</t>
+  </si>
+  <si>
+    <t>elegant</t>
+  </si>
+  <si>
+    <t>masterpiece</t>
+  </si>
+  <si>
+    <t>oldest</t>
+  </si>
+  <si>
+    <t>greatest</t>
+  </si>
+  <si>
+    <t>reform</t>
+  </si>
+  <si>
+    <t>astonishing</t>
+  </si>
+  <si>
+    <t>delightful</t>
+  </si>
+  <si>
+    <t>pursuing</t>
+  </si>
+  <si>
+    <t>ultimate</t>
+  </si>
+  <si>
+    <t>enjoyable</t>
+  </si>
+  <si>
+    <t>unique</t>
+  </si>
+  <si>
+    <t>greater</t>
+  </si>
+  <si>
+    <t>biggest</t>
+  </si>
+  <si>
+    <t>amazingly</t>
+  </si>
+  <si>
+    <t>intimately</t>
+  </si>
+  <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>extensive</t>
+  </si>
+  <si>
+    <t>famous</t>
+  </si>
+  <si>
+    <t>enhanced</t>
+  </si>
+  <si>
+    <t>beautifully</t>
+  </si>
+  <si>
+    <t>stunning</t>
+  </si>
+  <si>
+    <t>entirety</t>
+  </si>
+  <si>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>more</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>favorite</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>goals</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>own</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>global</t>
+  </si>
+  <si>
+    <t>expert</t>
+  </si>
+  <si>
+    <t>loving</t>
+  </si>
+  <si>
+    <t>incredible</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>plus</t>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+  <si>
+    <t>vital</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>unprecedented</t>
+  </si>
+  <si>
+    <t>outstanding</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>effective</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>liked</t>
+  </si>
+  <si>
+    <t>agile</t>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>welcome</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>most</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>huge</t>
+  </si>
+  <si>
+    <t>accurate</t>
+  </si>
+  <si>
+    <t>enjoyed</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>everyday</t>
+  </si>
+  <si>
+    <t>pin</t>
+  </si>
+  <si>
+    <t>sober</t>
+  </si>
+  <si>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>necessary</t>
+  </si>
+  <si>
+    <t>available</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>major</t>
+  </si>
+  <si>
+    <t>large</t>
+  </si>
+  <si>
+    <t>fascinating</t>
+  </si>
+  <si>
+    <t>goodbye</t>
+  </si>
+  <si>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>yeah</t>
+  </si>
+  <si>
+    <t>soon</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>smart</t>
+  </si>
+  <si>
+    <t>ya</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>issues</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>opt</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>im</t>
+  </si>
+  <si>
+    <t>tool</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>wanna</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>isn</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>holy</t>
+  </si>
+  <si>
+    <t>pretty</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>same</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
+  <si>
+    <t>accounts</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>where</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>google</t>
+  </si>
+  <si>
+    <t>recommended</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>its</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>let</t>
+  </si>
+  <si>
+    <t>impact</t>
+  </si>
+  <si>
+    <t>twitter</t>
+  </si>
+  <si>
+    <t>society</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>irony</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>am</t>
+  </si>
+  <si>
+    <t>facebook</t>
+  </si>
+  <si>
+    <t>than</t>
+  </si>
+  <si>
+    <t>documentary</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>has</t>
+  </si>
+  <si>
+    <t>;</t>
   </si>
   <si>
     <t>[UNK]</t>
   </si>
   <si>
-    <t>over</t>
-  </si>
-  <si>
-    <t>too</t>
-  </si>
-  <si>
-    <t>only</t>
-  </si>
-  <si>
-    <t>not</t>
-  </si>
-  <si>
-    <t>my</t>
+    <t>how</t>
+  </si>
+  <si>
+    <t>”</t>
+  </si>
+  <si>
+    <t>their</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>be</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>netflix</t>
+  </si>
+  <si>
+    <t>just</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>about</t>
+  </si>
+  <si>
+    <t>dilemma</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>are</t>
   </si>
   <si>
     <t>.</t>
   </si>
   <si>
-    <t>it</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>refreshing</t>
-  </si>
-  <si>
-    <t>success</t>
-  </si>
-  <si>
-    <t>elegant</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>unique</t>
-  </si>
-  <si>
-    <t>oldest</t>
-  </si>
-  <si>
-    <t>founded</t>
-  </si>
-  <si>
-    <t>impressive</t>
-  </si>
-  <si>
-    <t>delightful</t>
-  </si>
-  <si>
-    <t>splendid</t>
-  </si>
-  <si>
-    <t>greatest</t>
-  </si>
-  <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>famous</t>
-  </si>
-  <si>
-    <t>worthy</t>
-  </si>
-  <si>
-    <t>reform</t>
-  </si>
-  <si>
-    <t>guaranteed</t>
-  </si>
-  <si>
-    <t>greater</t>
-  </si>
-  <si>
-    <t>enjoyable</t>
-  </si>
-  <si>
-    <t>enhanced</t>
-  </si>
-  <si>
-    <t>beautifully</t>
-  </si>
-  <si>
-    <t>detailed</t>
-  </si>
-  <si>
-    <t>stunning</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>more</t>
-  </si>
-  <si>
-    <t>goals</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>own</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>easier</t>
-  </si>
-  <si>
-    <t>masterpiece</t>
-  </si>
-  <si>
-    <t>valuable</t>
-  </si>
-  <si>
-    <t>biggest</t>
-  </si>
-  <si>
-    <t>unprecedented</t>
-  </si>
-  <si>
-    <t>green</t>
-  </si>
-  <si>
-    <t>outstanding</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>means</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>rev</t>
-  </si>
-  <si>
-    <t>ahead</t>
-  </si>
-  <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>welcome</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>accurate</t>
-  </si>
-  <si>
-    <t>fantastic</t>
-  </si>
-  <si>
-    <t>@</t>
-  </si>
-  <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
-    <t>most</t>
-  </si>
-  <si>
-    <t>powerful</t>
-  </si>
-  <si>
-    <t>large</t>
-  </si>
-  <si>
-    <t>full</t>
-  </si>
-  <si>
-    <t>available</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>incredible</t>
-  </si>
-  <si>
-    <t>smart</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>huge</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>fascinating</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>tool</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>isn</t>
-  </si>
-  <si>
-    <t>pretty</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>impact</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>faster</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>has</t>
-  </si>
-  <si>
-    <t>&amp;</t>
+    <t>that</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>you</t>
   </si>
   <si>
     <t>of</t>
   </si>
   <si>
-    <t>documentary</t>
-  </si>
-  <si>
-    <t>media</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>in</t>
-  </si>
-  <si>
-    <t>'</t>
-  </si>
-  <si>
-    <t>…</t>
+    <t>on</t>
+  </si>
+  <si>
+    <t>is</t>
   </si>
   <si>
     <t>the</t>
@@ -1139,7 +1307,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q150"/>
+  <dimension ref="A1:Q179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1150,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="J1" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1229,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -1261,10 +1429,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1279,16 +1447,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1305,7 +1473,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1329,16 +1497,16 @@
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1355,7 +1523,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1379,16 +1547,16 @@
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1405,7 +1573,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1429,16 +1597,16 @@
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1455,16 +1623,16 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1479,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -1505,7 +1673,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1529,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1555,16 +1723,16 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1579,16 +1747,16 @@
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1605,16 +1773,16 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1629,16 +1797,16 @@
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1655,16 +1823,16 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1679,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1705,16 +1873,16 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1729,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1755,16 +1923,16 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1779,16 +1947,16 @@
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1805,16 +1973,16 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1829,16 +1997,16 @@
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="M15">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1855,16 +2023,16 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1879,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1905,7 +2073,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1929,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1955,16 +2123,16 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1979,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -2005,7 +2173,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -2029,16 +2197,16 @@
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -2055,16 +2223,16 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -2079,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -2105,16 +2273,16 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -2129,16 +2297,16 @@
         <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="K21">
         <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -2155,16 +2323,16 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -2179,7 +2347,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -2205,7 +2373,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -2229,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -2255,16 +2423,16 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -2279,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -2305,16 +2473,16 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -2329,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -2355,16 +2523,16 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -2379,16 +2547,16 @@
         <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="K26">
-        <v>0.9444444444444444</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -2400,21 +2568,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -2429,16 +2597,16 @@
         <v>0</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="K27">
-        <v>0.9090909090909091</v>
+        <v>1</v>
       </c>
       <c r="L27">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M27">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2450,21 +2618,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2479,16 +2647,16 @@
         <v>0</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="K28">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="L28">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2500,12 +2668,12 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -2529,16 +2697,16 @@
         <v>0</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="K29">
-        <v>0.72</v>
+        <v>1</v>
       </c>
       <c r="L29">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="M29">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2550,12 +2718,12 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -2579,16 +2747,16 @@
         <v>0</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="K30">
-        <v>0.6333333333333333</v>
+        <v>1</v>
       </c>
       <c r="L30">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="M30">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2600,12 +2768,12 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -2629,16 +2797,16 @@
         <v>0</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="K31">
-        <v>0.6210526315789474</v>
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="M31">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2650,21 +2818,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -2679,16 +2847,16 @@
         <v>0</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="K32">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="L32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -2700,21 +2868,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -2729,16 +2897,16 @@
         <v>0</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="K33">
-        <v>0.5964912280701754</v>
+        <v>1</v>
       </c>
       <c r="L33">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="M33">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -2750,21 +2918,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -2779,16 +2947,16 @@
         <v>0</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="K34">
-        <v>0.5135135135135135</v>
+        <v>1</v>
       </c>
       <c r="L34">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="M34">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -2800,12 +2968,12 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -2829,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="K35">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L35">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M35">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -2850,12 +3018,12 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -2879,10 +3047,10 @@
         <v>0</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="K36">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L36">
         <v>1</v>
@@ -2900,21 +3068,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
       <c r="C37">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D37">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -2929,10 +3097,10 @@
         <v>0</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="K37">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L37">
         <v>1</v>
@@ -2950,12 +3118,12 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -2979,10 +3147,10 @@
         <v>0</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="K38">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L38">
         <v>1</v>
@@ -3000,12 +3168,12 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -3029,10 +3197,10 @@
         <v>0</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="K39">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L39">
         <v>1</v>
@@ -3050,21 +3218,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -3079,16 +3247,16 @@
         <v>0</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="K40">
-        <v>0.5</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L40">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M40">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -3105,16 +3273,16 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
       <c r="C41">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D41">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -3129,16 +3297,16 @@
         <v>0</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="K41">
-        <v>0.5</v>
+        <v>0.88</v>
       </c>
       <c r="L41">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="M41">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -3150,21 +3318,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -3176,19 +3344,19 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="K42">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="L42">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="M42">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -3200,21 +3368,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>0.9326923076923077</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -3226,19 +3394,19 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="K43">
-        <v>0.5</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L43">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="M43">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -3250,21 +3418,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D44">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -3276,19 +3444,19 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="K44">
-        <v>0.44</v>
+        <v>0.7192982456140351</v>
       </c>
       <c r="L44">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="M44">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -3300,21 +3468,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -3326,19 +3494,19 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="K45">
-        <v>0.4137931034482759</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L45">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="M45">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -3350,21 +3518,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -3376,19 +3544,19 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="K46">
-        <v>0.3833333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L46">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="M46">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -3400,21 +3568,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>37</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>0.8939393939393939</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -3426,19 +3594,19 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="K47">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -3450,21 +3618,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -3476,19 +3644,19 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="K48">
-        <v>0.3333333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="L48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -3500,21 +3668,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -3526,19 +3694,19 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="K49">
-        <v>0.3333333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="L49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -3555,16 +3723,16 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.9666666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="C50">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D50">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -3576,19 +3744,19 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="K50">
-        <v>0.3333333333333333</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="L50">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="M50">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -3600,21 +3768,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.9519230769230769</v>
+        <v>0.75</v>
       </c>
       <c r="C51">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="D51">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -3626,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="K51">
-        <v>0.3333333333333333</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="L51">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="M51">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -3650,21 +3818,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B52">
-        <v>0.9333333333333333</v>
+        <v>0.7</v>
       </c>
       <c r="C52">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D52">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -3676,19 +3844,19 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="K52">
-        <v>0.3333333333333333</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="L52">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="M52">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -3700,21 +3868,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.9090909090909091</v>
+        <v>0.675</v>
       </c>
       <c r="C53">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D53">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -3726,19 +3894,19 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="K53">
-        <v>0.2857142857142857</v>
+        <v>0.5</v>
       </c>
       <c r="L53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -3750,21 +3918,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="1" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.8888888888888888</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C54">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D54">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -3779,16 +3947,16 @@
         <v>1</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="K54">
-        <v>0.2777777777777778</v>
+        <v>0.5</v>
       </c>
       <c r="L54">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M54">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -3800,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -3808,13 +3976,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.875</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C55">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D55">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -3826,13 +3994,13 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="K55">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="L55">
         <v>1</v>
@@ -3850,7 +4018,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -3858,13 +4026,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.8181818181818182</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C56">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="D56">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -3876,19 +4044,19 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="K56">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="L56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -3900,7 +4068,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -3908,13 +4076,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.7894736842105263</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C57">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D57">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -3926,19 +4094,19 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="K57">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="L57">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M57">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -3950,7 +4118,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -3958,13 +4126,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -3979,10 +4147,10 @@
         <v>1</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="K58">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="L58">
         <v>1</v>
@@ -4000,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -4008,13 +4176,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -4029,16 +4197,16 @@
         <v>1</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="K59">
-        <v>0.234375</v>
+        <v>0.5</v>
       </c>
       <c r="L59">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="M59">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -4050,7 +4218,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>49</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:17">
@@ -4058,13 +4226,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.75</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C60">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D60">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -4076,19 +4244,19 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="K60">
-        <v>0.2105263157894737</v>
+        <v>0.5</v>
       </c>
       <c r="L60">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M60">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N60">
         <v>0</v>
@@ -4100,7 +4268,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -4108,13 +4276,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.7058823529411765</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C61">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D61">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -4129,10 +4297,10 @@
         <v>5</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="K61">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="L61">
         <v>1</v>
@@ -4150,7 +4318,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:17">
@@ -4158,13 +4326,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.6666666666666666</v>
+        <v>0.6</v>
       </c>
       <c r="C62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -4176,13 +4344,13 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="K62">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="L62">
         <v>1</v>
@@ -4200,7 +4368,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:17">
@@ -4208,13 +4376,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="C63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -4229,10 +4397,10 @@
         <v>1</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="K63">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="L63">
         <v>1</v>
@@ -4250,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:17">
@@ -4258,13 +4426,13 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="C64">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D64">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -4276,19 +4444,19 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="K64">
-        <v>0.1666666666666667</v>
+        <v>0.44</v>
       </c>
       <c r="L64">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="M64">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="N64">
         <v>0</v>
@@ -4300,7 +4468,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65" spans="1:17">
@@ -4308,13 +4476,13 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="C65">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D65">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -4326,19 +4494,19 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="K65">
-        <v>0.1666666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="L65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N65">
         <v>0</v>
@@ -4350,7 +4518,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:17">
@@ -4358,7 +4526,7 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="C66">
         <v>2</v>
@@ -4376,19 +4544,19 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="K66">
-        <v>0.1428571428571428</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="L66">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M66">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -4400,7 +4568,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:17">
@@ -4408,13 +4576,13 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="C67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -4429,16 +4597,16 @@
         <v>1</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="K67">
-        <v>0.1428571428571428</v>
+        <v>0.375</v>
       </c>
       <c r="L67">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M67">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -4450,7 +4618,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:17">
@@ -4458,13 +4626,13 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="C68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -4479,10 +4647,10 @@
         <v>1</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="K68">
-        <v>0.1428571428571428</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L68">
         <v>1</v>
@@ -4500,7 +4668,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:17">
@@ -4508,13 +4676,13 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="C69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -4529,10 +4697,10 @@
         <v>1</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="K69">
-        <v>0.1428571428571428</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L69">
         <v>1</v>
@@ -4550,7 +4718,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:17">
@@ -4558,13 +4726,13 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="C70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -4579,16 +4747,16 @@
         <v>1</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="K70">
-        <v>0.125</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N70">
         <v>0</v>
@@ -4600,7 +4768,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:17">
@@ -4608,13 +4776,13 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
       <c r="C71">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D71">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -4626,19 +4794,19 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="K71">
-        <v>0.125</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N71">
         <v>0</v>
@@ -4650,7 +4818,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:17">
@@ -4658,13 +4826,13 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
       <c r="C72">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D72">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -4676,13 +4844,13 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="K72">
-        <v>0.1111111111111111</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L72">
         <v>1</v>
@@ -4700,7 +4868,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:17">
@@ -4708,13 +4876,13 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.6060606060606061</v>
+        <v>0.5</v>
       </c>
       <c r="C73">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="D73">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -4726,13 +4894,13 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="K73">
-        <v>0.09090909090909091</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L73">
         <v>1</v>
@@ -4750,7 +4918,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:17">
@@ -4758,13 +4926,13 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="C74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -4779,16 +4947,16 @@
         <v>2</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="K74">
-        <v>0.08333333333333333</v>
+        <v>0.3125</v>
       </c>
       <c r="L74">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="M74">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N74">
         <v>0</v>
@@ -4800,7 +4968,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>11</v>
+        <v>44</v>
       </c>
     </row>
     <row r="75" spans="1:17">
@@ -4808,13 +4976,13 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="C75">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D75">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -4826,19 +4994,19 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="K75">
-        <v>0.07317073170731707</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N75">
         <v>0</v>
@@ -4850,7 +5018,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>38</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:17">
@@ -4858,13 +5026,13 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.6</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="C76">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D76">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -4876,19 +5044,19 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="K76">
-        <v>0.06666666666666667</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N76">
         <v>0</v>
@@ -4900,7 +5068,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:17">
@@ -4908,13 +5076,13 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.5625</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="C77">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D77">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -4926,13 +5094,13 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="K77">
-        <v>0.05882352941176471</v>
+        <v>0.25</v>
       </c>
       <c r="L77">
         <v>1</v>
@@ -4950,7 +5118,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:17">
@@ -4958,13 +5126,13 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.55</v>
+        <v>0.4492753623188406</v>
       </c>
       <c r="C78">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="D78">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -4976,13 +5144,13 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="K78">
-        <v>0.04347826086956522</v>
+        <v>0.25</v>
       </c>
       <c r="L78">
         <v>1</v>
@@ -5000,7 +5168,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:17">
@@ -5008,13 +5176,13 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.5384615384615384</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C79">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D79">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -5026,13 +5194,13 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="K79">
-        <v>0.03389830508474576</v>
+        <v>0.25</v>
       </c>
       <c r="L79">
         <v>2</v>
@@ -5050,7 +5218,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>57</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:17">
@@ -5058,13 +5226,13 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.5</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -5076,13 +5244,13 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="K80">
-        <v>0.0303030303030303</v>
+        <v>0.25</v>
       </c>
       <c r="L80">
         <v>1</v>
@@ -5100,7 +5268,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>32</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:17">
@@ -5108,13 +5276,13 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.5</v>
+        <v>0.4242424242424243</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -5126,13 +5294,13 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="K81">
-        <v>0.0303030303030303</v>
+        <v>0.25</v>
       </c>
       <c r="L81">
         <v>1</v>
@@ -5150,7 +5318,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>32</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:17">
@@ -5158,13 +5326,13 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.5</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -5176,13 +5344,13 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="K82">
-        <v>0.02777777777777778</v>
+        <v>0.25</v>
       </c>
       <c r="L82">
         <v>1</v>
@@ -5200,7 +5368,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>35</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:17">
@@ -5208,13 +5376,13 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.5</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -5226,19 +5394,19 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="K83">
-        <v>0.01912568306010929</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="L83">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="M83">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="N83">
         <v>0</v>
@@ -5250,7 +5418,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>1077</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84" spans="1:17">
@@ -5258,13 +5426,13 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -5276,19 +5444,19 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="K84">
-        <v>0.01851851851851852</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="L84">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M84">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N84">
         <v>0</v>
@@ -5300,7 +5468,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>53</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:17">
@@ -5308,13 +5476,13 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -5326,13 +5494,13 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="K85">
-        <v>0.01851851851851852</v>
+        <v>0.2</v>
       </c>
       <c r="L85">
         <v>1</v>
@@ -5350,7 +5518,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>53</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:17">
@@ -5358,13 +5526,13 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.5</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="C86">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D86">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -5376,13 +5544,13 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="K86">
-        <v>0.01639344262295082</v>
+        <v>0.2</v>
       </c>
       <c r="L86">
         <v>1</v>
@@ -5400,7 +5568,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>60</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:17">
@@ -5408,13 +5576,13 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.5</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D87">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -5426,13 +5594,13 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="K87">
-        <v>0.01538461538461539</v>
+        <v>0.2</v>
       </c>
       <c r="L87">
         <v>1</v>
@@ -5450,7 +5618,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>64</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:17">
@@ -5458,13 +5626,13 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.5</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="C88">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D88">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -5476,13 +5644,13 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="K88">
-        <v>0.01408450704225352</v>
+        <v>0.2</v>
       </c>
       <c r="L88">
         <v>1</v>
@@ -5500,7 +5668,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>70</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:17">
@@ -5508,13 +5676,13 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.5</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -5526,13 +5694,13 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="K89">
-        <v>0.01176470588235294</v>
+        <v>0.2</v>
       </c>
       <c r="L89">
         <v>1</v>
@@ -5550,7 +5718,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>84</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:17">
@@ -5558,13 +5726,13 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.5</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="C90">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D90">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -5576,19 +5744,19 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="K90">
-        <v>0.01052631578947368</v>
+        <v>0.1875</v>
       </c>
       <c r="L90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N90">
         <v>0</v>
@@ -5600,7 +5768,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>94</v>
+        <v>13</v>
       </c>
     </row>
     <row r="91" spans="1:17">
@@ -5608,7 +5776,7 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -5626,13 +5794,13 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="K91">
-        <v>0.008695652173913044</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L91">
         <v>1</v>
@@ -5650,7 +5818,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>114</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:17">
@@ -5658,13 +5826,13 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.463768115942029</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C92">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="D92">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -5676,13 +5844,13 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>74</v>
+        <v>2</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="K92">
-        <v>0.007692307692307693</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L92">
         <v>1</v>
@@ -5700,7 +5868,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>129</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:17">
@@ -5708,13 +5876,13 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.4615384615384616</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C93">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D93">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -5726,19 +5894,19 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="K93">
-        <v>0.004213483146067416</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N93">
         <v>0</v>
@@ -5750,7 +5918,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>709</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:17">
@@ -5758,13 +5926,13 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.4615384615384616</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C94">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D94">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -5776,13 +5944,13 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="K94">
-        <v>0.00353356890459364</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L94">
         <v>1</v>
@@ -5800,7 +5968,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>282</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:17">
@@ -5808,13 +5976,13 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.4545454545454545</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C95">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D95">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -5826,13 +5994,13 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="K95">
-        <v>0.003012048192771084</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="L95">
         <v>2</v>
@@ -5850,7 +6018,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>662</v>
+        <v>11</v>
       </c>
     </row>
     <row r="96" spans="1:17">
@@ -5858,13 +6026,13 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.45</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C96">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D96">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -5876,31 +6044,31 @@
         <v>0</v>
       </c>
       <c r="H96">
+        <v>4</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="K96">
+        <v>0.1538461538461539</v>
+      </c>
+      <c r="L96">
+        <v>2</v>
+      </c>
+      <c r="M96">
+        <v>2</v>
+      </c>
+      <c r="N96">
+        <v>0</v>
+      </c>
+      <c r="O96">
+        <v>1</v>
+      </c>
+      <c r="P96" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q96">
         <v>11</v>
-      </c>
-      <c r="J96" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="K96">
-        <v>0.002615518744551003</v>
-      </c>
-      <c r="L96">
-        <v>3</v>
-      </c>
-      <c r="M96">
-        <v>3</v>
-      </c>
-      <c r="N96">
-        <v>0</v>
-      </c>
-      <c r="O96">
-        <v>1</v>
-      </c>
-      <c r="P96" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q96">
-        <v>1144</v>
       </c>
     </row>
     <row r="97" spans="1:17">
@@ -5908,13 +6076,13 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.4285714285714285</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C97">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D97">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -5926,19 +6094,19 @@
         <v>0</v>
       </c>
       <c r="H97">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="K97">
-        <v>0.002597402597402597</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="L97">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M97">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N97">
         <v>0</v>
@@ -5950,7 +6118,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>384</v>
+        <v>23</v>
       </c>
     </row>
     <row r="98" spans="1:17">
@@ -5958,13 +6126,13 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.425531914893617</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C98">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D98">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -5976,13 +6144,13 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="K98">
-        <v>0.00228310502283105</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L98">
         <v>1</v>
@@ -6000,7 +6168,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>437</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99" spans="1:17">
@@ -6008,7 +6176,7 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.4166666666666667</v>
+        <v>0.3125</v>
       </c>
       <c r="C99">
         <v>5</v>
@@ -6026,31 +6194,31 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>155</v>
+        <v>231</v>
       </c>
       <c r="K99">
-        <v>0.002081165452653486</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M99">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N99">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="O99">
-        <v>0.6699999999999999</v>
+        <v>1</v>
       </c>
       <c r="P99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q99">
-        <v>959</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100" spans="1:17">
@@ -6058,13 +6226,13 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.4166666666666667</v>
+        <v>0.2978723404255319</v>
       </c>
       <c r="C100">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D100">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -6076,13 +6244,13 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="K100">
-        <v>0.001364256480218281</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L100">
         <v>1</v>
@@ -6100,7 +6268,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>732</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101" spans="1:17">
@@ -6108,13 +6276,13 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.4</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C101">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D101">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E101">
         <v>1</v>
@@ -6126,13 +6294,13 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="K101">
-        <v>0.000576036866359447</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L101">
         <v>1</v>
@@ -6150,7 +6318,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>1735</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:17">
@@ -6158,38 +6326,38 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.3809523809523809</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="C102">
+        <v>10</v>
+      </c>
+      <c r="D102">
+        <v>10</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102" t="b">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>29</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="K102">
+        <v>0.1355932203389831</v>
+      </c>
+      <c r="L102">
         <v>8</v>
       </c>
-      <c r="D102">
+      <c r="M102">
         <v>8</v>
       </c>
-      <c r="E102">
-        <v>1</v>
-      </c>
-      <c r="F102">
-        <v>0</v>
-      </c>
-      <c r="G102" t="b">
-        <v>0</v>
-      </c>
-      <c r="H102">
-        <v>13</v>
-      </c>
-      <c r="J102" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="K102">
-        <v>0.0002545824847250509</v>
-      </c>
-      <c r="L102">
-        <v>1</v>
-      </c>
-      <c r="M102">
-        <v>1</v>
-      </c>
       <c r="N102">
         <v>0</v>
       </c>
@@ -6200,7 +6368,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>3927</v>
+        <v>51</v>
       </c>
     </row>
     <row r="103" spans="1:17">
@@ -6208,13 +6376,13 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.358974358974359</v>
+        <v>0.25</v>
       </c>
       <c r="C103">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D103">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -6226,7 +6394,31 @@
         <v>0</v>
       </c>
       <c r="H103">
-        <v>25</v>
+        <v>9</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="K103">
+        <v>0.1304347826086956</v>
+      </c>
+      <c r="L103">
+        <v>3</v>
+      </c>
+      <c r="M103">
+        <v>3</v>
+      </c>
+      <c r="N103">
+        <v>0</v>
+      </c>
+      <c r="O103">
+        <v>1</v>
+      </c>
+      <c r="P103" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q103">
+        <v>20</v>
       </c>
     </row>
     <row r="104" spans="1:17">
@@ -6234,13 +6426,13 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.3571428571428572</v>
+        <v>0.25</v>
       </c>
       <c r="C104">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D104">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -6252,7 +6444,31 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <v>9</v>
+        <v>3</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="K104">
+        <v>0.125</v>
+      </c>
+      <c r="L104">
+        <v>6</v>
+      </c>
+      <c r="M104">
+        <v>6</v>
+      </c>
+      <c r="N104">
+        <v>0</v>
+      </c>
+      <c r="O104">
+        <v>1</v>
+      </c>
+      <c r="P104" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q104">
+        <v>42</v>
       </c>
     </row>
     <row r="105" spans="1:17">
@@ -6260,13 +6476,13 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.3529411764705883</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="C105">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D105">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E105">
         <v>1</v>
@@ -6278,7 +6494,31 @@
         <v>0</v>
       </c>
       <c r="H105">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="K105">
+        <v>0.125</v>
+      </c>
+      <c r="L105">
+        <v>1</v>
+      </c>
+      <c r="M105">
+        <v>1</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+      <c r="O105">
+        <v>1</v>
+      </c>
+      <c r="P105" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q105">
+        <v>7</v>
       </c>
     </row>
     <row r="106" spans="1:17">
@@ -6286,25 +6526,49 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.3478260869565217</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="C106">
+        <v>6</v>
+      </c>
+      <c r="D106">
+        <v>6</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106" t="b">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>22</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="K106">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="L106">
+        <v>1</v>
+      </c>
+      <c r="M106">
+        <v>1</v>
+      </c>
+      <c r="N106">
+        <v>0</v>
+      </c>
+      <c r="O106">
+        <v>1</v>
+      </c>
+      <c r="P106" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q106">
         <v>8</v>
-      </c>
-      <c r="D106">
-        <v>8</v>
-      </c>
-      <c r="E106">
-        <v>1</v>
-      </c>
-      <c r="F106">
-        <v>0</v>
-      </c>
-      <c r="G106" t="b">
-        <v>0</v>
-      </c>
-      <c r="H106">
-        <v>15</v>
       </c>
     </row>
     <row r="107" spans="1:17">
@@ -6312,13 +6576,13 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.3428571428571429</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="C107">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D107">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -6330,7 +6594,31 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>23</v>
+        <v>15</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="K107">
+        <v>0.1</v>
+      </c>
+      <c r="L107">
+        <v>1</v>
+      </c>
+      <c r="M107">
+        <v>1</v>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+      <c r="O107">
+        <v>1</v>
+      </c>
+      <c r="P107" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q107">
+        <v>9</v>
       </c>
     </row>
     <row r="108" spans="1:17">
@@ -6338,13 +6626,13 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.3333333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="C108">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D108">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E108">
         <v>1</v>
@@ -6356,7 +6644,31 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <v>16</v>
+        <v>4</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="K108">
+        <v>0.0975609756097561</v>
+      </c>
+      <c r="L108">
+        <v>4</v>
+      </c>
+      <c r="M108">
+        <v>4</v>
+      </c>
+      <c r="N108">
+        <v>0</v>
+      </c>
+      <c r="O108">
+        <v>1</v>
+      </c>
+      <c r="P108" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q108">
+        <v>37</v>
       </c>
     </row>
     <row r="109" spans="1:17">
@@ -6364,7 +6676,7 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.3333333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -6382,7 +6694,31 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="K109">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="L109">
+        <v>1</v>
+      </c>
+      <c r="M109">
+        <v>1</v>
+      </c>
+      <c r="N109">
+        <v>0</v>
+      </c>
+      <c r="O109">
+        <v>1</v>
+      </c>
+      <c r="P109" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q109">
+        <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:17">
@@ -6390,25 +6726,49 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.3333333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110" t="b">
+        <v>0</v>
+      </c>
+      <c r="H110">
         <v>4</v>
       </c>
-      <c r="D110">
-        <v>4</v>
-      </c>
-      <c r="E110">
-        <v>1</v>
-      </c>
-      <c r="F110">
-        <v>0</v>
-      </c>
-      <c r="G110" t="b">
-        <v>0</v>
-      </c>
-      <c r="H110">
-        <v>8</v>
+      <c r="J110" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="K110">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="L110">
+        <v>1</v>
+      </c>
+      <c r="M110">
+        <v>1</v>
+      </c>
+      <c r="N110">
+        <v>0</v>
+      </c>
+      <c r="O110">
+        <v>1</v>
+      </c>
+      <c r="P110" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q110">
+        <v>10</v>
       </c>
     </row>
     <row r="111" spans="1:17">
@@ -6416,13 +6776,13 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.3333333333333333</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="C111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E111">
         <v>1</v>
@@ -6434,7 +6794,31 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="K111">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="L111">
+        <v>3</v>
+      </c>
+      <c r="M111">
+        <v>3</v>
+      </c>
+      <c r="N111">
+        <v>0</v>
+      </c>
+      <c r="O111">
+        <v>1</v>
+      </c>
+      <c r="P111" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q111">
+        <v>30</v>
       </c>
     </row>
     <row r="112" spans="1:17">
@@ -6442,7 +6826,7 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -6460,21 +6844,45 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>5</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="K112">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="L112">
+        <v>1</v>
+      </c>
+      <c r="M112">
+        <v>1</v>
+      </c>
+      <c r="N112">
+        <v>0</v>
+      </c>
+      <c r="O112">
+        <v>1</v>
+      </c>
+      <c r="P112" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q112">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17">
       <c r="A113" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E113">
         <v>1</v>
@@ -6486,15 +6894,39 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>5</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="K113">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="L113">
+        <v>1</v>
+      </c>
+      <c r="M113">
+        <v>1</v>
+      </c>
+      <c r="N113">
+        <v>0</v>
+      </c>
+      <c r="O113">
+        <v>1</v>
+      </c>
+      <c r="P113" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q113">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17">
       <c r="A114" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -6512,15 +6944,39 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>5</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="K114">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="L114">
+        <v>1</v>
+      </c>
+      <c r="M114">
+        <v>1</v>
+      </c>
+      <c r="N114">
+        <v>0</v>
+      </c>
+      <c r="O114">
+        <v>1</v>
+      </c>
+      <c r="P114" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q114">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17">
       <c r="A115" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -6538,21 +6994,45 @@
         <v>0</v>
       </c>
       <c r="H115">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>5</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="K115">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="L115">
+        <v>1</v>
+      </c>
+      <c r="M115">
+        <v>1</v>
+      </c>
+      <c r="N115">
+        <v>0</v>
+      </c>
+      <c r="O115">
+        <v>1</v>
+      </c>
+      <c r="P115" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q115">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17">
       <c r="A116" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.3333333333333333</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="C116">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D116">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E116">
         <v>1</v>
@@ -6564,21 +7044,45 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="K116">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="L116">
+        <v>1</v>
+      </c>
+      <c r="M116">
+        <v>1</v>
+      </c>
+      <c r="N116">
+        <v>0</v>
+      </c>
+      <c r="O116">
+        <v>1</v>
+      </c>
+      <c r="P116" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q116">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17">
       <c r="A117" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.3333333333333333</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E117">
         <v>1</v>
@@ -6590,15 +7094,39 @@
         <v>0</v>
       </c>
       <c r="H117">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="K117">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="L117">
+        <v>1</v>
+      </c>
+      <c r="M117">
+        <v>1</v>
+      </c>
+      <c r="N117">
+        <v>0</v>
+      </c>
+      <c r="O117">
+        <v>1</v>
+      </c>
+      <c r="P117" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q117">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17">
       <c r="A118" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.3333333333333333</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -6616,21 +7144,45 @@
         <v>0</v>
       </c>
       <c r="H118">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>8</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="K118">
+        <v>0.0625</v>
+      </c>
+      <c r="L118">
+        <v>1</v>
+      </c>
+      <c r="M118">
+        <v>1</v>
+      </c>
+      <c r="N118">
+        <v>0</v>
+      </c>
+      <c r="O118">
+        <v>1</v>
+      </c>
+      <c r="P118" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q118">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17">
       <c r="A119" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.3333333333333333</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="C119">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D119">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E119">
         <v>1</v>
@@ -6642,21 +7194,45 @@
         <v>0</v>
       </c>
       <c r="H119">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="K119">
+        <v>0.0625</v>
+      </c>
+      <c r="L119">
+        <v>1</v>
+      </c>
+      <c r="M119">
+        <v>1</v>
+      </c>
+      <c r="N119">
+        <v>0</v>
+      </c>
+      <c r="O119">
+        <v>1</v>
+      </c>
+      <c r="P119" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q119">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17">
       <c r="A120" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.3333333333333333</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="C120">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D120">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E120">
         <v>1</v>
@@ -6668,21 +7244,45 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="K120">
+        <v>0.05882352941176471</v>
+      </c>
+      <c r="L120">
+        <v>1</v>
+      </c>
+      <c r="M120">
+        <v>1</v>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+      <c r="O120">
+        <v>1</v>
+      </c>
+      <c r="P120" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q120">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17">
       <c r="A121" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.3214285714285715</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C121">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D121">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E121">
         <v>1</v>
@@ -6694,21 +7294,45 @@
         <v>0</v>
       </c>
       <c r="H121">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>72</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="K121">
+        <v>0.05633802816901409</v>
+      </c>
+      <c r="L121">
+        <v>4</v>
+      </c>
+      <c r="M121">
+        <v>4</v>
+      </c>
+      <c r="N121">
+        <v>0</v>
+      </c>
+      <c r="O121">
+        <v>1</v>
+      </c>
+      <c r="P121" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q121">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17">
       <c r="A122" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.25</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C122">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D122">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E122">
         <v>1</v>
@@ -6720,15 +7344,39 @@
         <v>0</v>
       </c>
       <c r="H122">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="K122">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="L122">
+        <v>2</v>
+      </c>
+      <c r="M122">
+        <v>2</v>
+      </c>
+      <c r="N122">
+        <v>0</v>
+      </c>
+      <c r="O122">
+        <v>1</v>
+      </c>
+      <c r="P122" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q122">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17">
       <c r="A123" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.2</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -6746,21 +7394,45 @@
         <v>0</v>
       </c>
       <c r="H123">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="K123">
+        <v>0.05128205128205128</v>
+      </c>
+      <c r="L123">
+        <v>2</v>
+      </c>
+      <c r="M123">
+        <v>2</v>
+      </c>
+      <c r="N123">
+        <v>0</v>
+      </c>
+      <c r="O123">
+        <v>1</v>
+      </c>
+      <c r="P123" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q123">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17">
       <c r="A124" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.2</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E124">
         <v>1</v>
@@ -6772,21 +7444,45 @@
         <v>0</v>
       </c>
       <c r="H124">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="K124">
+        <v>0.04918032786885246</v>
+      </c>
+      <c r="L124">
+        <v>3</v>
+      </c>
+      <c r="M124">
+        <v>3</v>
+      </c>
+      <c r="N124">
+        <v>0</v>
+      </c>
+      <c r="O124">
+        <v>1</v>
+      </c>
+      <c r="P124" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q124">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17">
       <c r="A125" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.1666666666666667</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="C125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -6798,15 +7494,39 @@
         <v>0</v>
       </c>
       <c r="H125">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="K125">
+        <v>0.04761904761904762</v>
+      </c>
+      <c r="L125">
+        <v>1</v>
+      </c>
+      <c r="M125">
+        <v>1</v>
+      </c>
+      <c r="N125">
+        <v>0</v>
+      </c>
+      <c r="O125">
+        <v>1</v>
+      </c>
+      <c r="P125" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q125">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17">
       <c r="A126" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.1666666666666667</v>
+        <v>0.04</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -6824,15 +7544,39 @@
         <v>0</v>
       </c>
       <c r="H126">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="K126">
+        <v>0.04545454545454546</v>
+      </c>
+      <c r="L126">
+        <v>1</v>
+      </c>
+      <c r="M126">
+        <v>1</v>
+      </c>
+      <c r="N126">
+        <v>0</v>
+      </c>
+      <c r="O126">
+        <v>1</v>
+      </c>
+      <c r="P126" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q126">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17">
       <c r="A127" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.1666666666666667</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -6850,605 +7594,1407 @@
         <v>0</v>
       </c>
       <c r="H127">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="J127" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="K127">
+        <v>0.04347826086956522</v>
+      </c>
+      <c r="L127">
+        <v>1</v>
+      </c>
+      <c r="M127">
+        <v>1</v>
+      </c>
+      <c r="N127">
+        <v>0</v>
+      </c>
+      <c r="O127">
+        <v>1</v>
+      </c>
+      <c r="P127" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q127">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17">
       <c r="A128" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.1555555555555556</v>
+        <v>0.006711409395973154</v>
       </c>
       <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128" t="b">
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <v>148</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="K128">
+        <v>0.04166666666666666</v>
+      </c>
+      <c r="L128">
+        <v>1</v>
+      </c>
+      <c r="M128">
+        <v>1</v>
+      </c>
+      <c r="N128">
+        <v>0</v>
+      </c>
+      <c r="O128">
+        <v>1</v>
+      </c>
+      <c r="P128" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q128">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="129" spans="10:17">
+      <c r="J129" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="K129">
+        <v>0.04098360655737705</v>
+      </c>
+      <c r="L129">
+        <v>45</v>
+      </c>
+      <c r="M129">
+        <v>45</v>
+      </c>
+      <c r="N129">
+        <v>0</v>
+      </c>
+      <c r="O129">
+        <v>1</v>
+      </c>
+      <c r="P129" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q129">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="130" spans="10:17">
+      <c r="J130" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="K130">
+        <v>0.03846153846153846</v>
+      </c>
+      <c r="L130">
+        <v>1</v>
+      </c>
+      <c r="M130">
+        <v>1</v>
+      </c>
+      <c r="N130">
+        <v>0</v>
+      </c>
+      <c r="O130">
+        <v>1</v>
+      </c>
+      <c r="P130" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q130">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="131" spans="10:17">
+      <c r="J131" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="K131">
+        <v>0.03571428571428571</v>
+      </c>
+      <c r="L131">
+        <v>1</v>
+      </c>
+      <c r="M131">
+        <v>1</v>
+      </c>
+      <c r="N131">
+        <v>0</v>
+      </c>
+      <c r="O131">
+        <v>1</v>
+      </c>
+      <c r="P131" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q131">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="132" spans="10:17">
+      <c r="J132" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="K132">
+        <v>0.03376623376623376</v>
+      </c>
+      <c r="L132">
+        <v>13</v>
+      </c>
+      <c r="M132">
+        <v>13</v>
+      </c>
+      <c r="N132">
+        <v>0</v>
+      </c>
+      <c r="O132">
+        <v>1</v>
+      </c>
+      <c r="P132" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q132">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="133" spans="10:17">
+      <c r="J133" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="K133">
+        <v>0.03278688524590164</v>
+      </c>
+      <c r="L133">
+        <v>2</v>
+      </c>
+      <c r="M133">
+        <v>2</v>
+      </c>
+      <c r="N133">
+        <v>0</v>
+      </c>
+      <c r="O133">
+        <v>1</v>
+      </c>
+      <c r="P133" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q133">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="134" spans="10:17">
+      <c r="J134" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="K134">
+        <v>0.03157894736842105</v>
+      </c>
+      <c r="L134">
+        <v>3</v>
+      </c>
+      <c r="M134">
+        <v>3</v>
+      </c>
+      <c r="N134">
+        <v>0</v>
+      </c>
+      <c r="O134">
+        <v>1</v>
+      </c>
+      <c r="P134" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q134">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="135" spans="10:17">
+      <c r="J135" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="K135">
+        <v>0.03125</v>
+      </c>
+      <c r="L135">
+        <v>1</v>
+      </c>
+      <c r="M135">
+        <v>1</v>
+      </c>
+      <c r="N135">
+        <v>0</v>
+      </c>
+      <c r="O135">
+        <v>1</v>
+      </c>
+      <c r="P135" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q135">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="136" spans="10:17">
+      <c r="J136" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="K136">
+        <v>0.0303030303030303</v>
+      </c>
+      <c r="L136">
+        <v>1</v>
+      </c>
+      <c r="M136">
+        <v>1</v>
+      </c>
+      <c r="N136">
+        <v>0</v>
+      </c>
+      <c r="O136">
+        <v>1</v>
+      </c>
+      <c r="P136" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q136">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="137" spans="10:17">
+      <c r="J137" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="K137">
+        <v>0.0291970802919708</v>
+      </c>
+      <c r="L137">
+        <v>4</v>
+      </c>
+      <c r="M137">
+        <v>4</v>
+      </c>
+      <c r="N137">
+        <v>0</v>
+      </c>
+      <c r="O137">
+        <v>1</v>
+      </c>
+      <c r="P137" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q137">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="138" spans="10:17">
+      <c r="J138" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="K138">
+        <v>0.02631578947368421</v>
+      </c>
+      <c r="L138">
+        <v>1</v>
+      </c>
+      <c r="M138">
+        <v>1</v>
+      </c>
+      <c r="N138">
+        <v>0</v>
+      </c>
+      <c r="O138">
+        <v>1</v>
+      </c>
+      <c r="P138" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q138">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="139" spans="10:17">
+      <c r="J139" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="K139">
+        <v>0.02272727272727273</v>
+      </c>
+      <c r="L139">
+        <v>1</v>
+      </c>
+      <c r="M139">
+        <v>1</v>
+      </c>
+      <c r="N139">
+        <v>0</v>
+      </c>
+      <c r="O139">
+        <v>1</v>
+      </c>
+      <c r="P139" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q139">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="140" spans="10:17">
+      <c r="J140" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="K140">
+        <v>0.02222222222222222</v>
+      </c>
+      <c r="L140">
+        <v>1</v>
+      </c>
+      <c r="M140">
+        <v>1</v>
+      </c>
+      <c r="N140">
+        <v>0</v>
+      </c>
+      <c r="O140">
+        <v>1</v>
+      </c>
+      <c r="P140" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q140">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="141" spans="10:17">
+      <c r="J141" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="K141">
+        <v>0.02173913043478261</v>
+      </c>
+      <c r="L141">
+        <v>1</v>
+      </c>
+      <c r="M141">
+        <v>1</v>
+      </c>
+      <c r="N141">
+        <v>0</v>
+      </c>
+      <c r="O141">
+        <v>1</v>
+      </c>
+      <c r="P141" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q141">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="142" spans="10:17">
+      <c r="J142" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="K142">
+        <v>0.02</v>
+      </c>
+      <c r="L142">
+        <v>1</v>
+      </c>
+      <c r="M142">
+        <v>1</v>
+      </c>
+      <c r="N142">
+        <v>0</v>
+      </c>
+      <c r="O142">
+        <v>1</v>
+      </c>
+      <c r="P142" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q142">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="143" spans="10:17">
+      <c r="J143" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="K143">
+        <v>0.01851851851851852</v>
+      </c>
+      <c r="L143">
+        <v>1</v>
+      </c>
+      <c r="M143">
+        <v>1</v>
+      </c>
+      <c r="N143">
+        <v>0</v>
+      </c>
+      <c r="O143">
+        <v>1</v>
+      </c>
+      <c r="P143" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q143">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="144" spans="10:17">
+      <c r="J144" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="K144">
+        <v>0.01851851851851852</v>
+      </c>
+      <c r="L144">
+        <v>1</v>
+      </c>
+      <c r="M144">
+        <v>1</v>
+      </c>
+      <c r="N144">
+        <v>0</v>
+      </c>
+      <c r="O144">
+        <v>1</v>
+      </c>
+      <c r="P144" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q144">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="145" spans="10:17">
+      <c r="J145" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="K145">
+        <v>0.01538461538461539</v>
+      </c>
+      <c r="L145">
+        <v>1</v>
+      </c>
+      <c r="M145">
+        <v>1</v>
+      </c>
+      <c r="N145">
+        <v>0</v>
+      </c>
+      <c r="O145">
+        <v>1</v>
+      </c>
+      <c r="P145" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q145">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="146" spans="10:17">
+      <c r="J146" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="K146">
+        <v>0.01351351351351351</v>
+      </c>
+      <c r="L146">
+        <v>1</v>
+      </c>
+      <c r="M146">
+        <v>1</v>
+      </c>
+      <c r="N146">
+        <v>0</v>
+      </c>
+      <c r="O146">
+        <v>1</v>
+      </c>
+      <c r="P146" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q146">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="147" spans="10:17">
+      <c r="J147" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K147">
+        <v>0.01333333333333333</v>
+      </c>
+      <c r="L147">
+        <v>1</v>
+      </c>
+      <c r="M147">
+        <v>1</v>
+      </c>
+      <c r="N147">
+        <v>0</v>
+      </c>
+      <c r="O147">
+        <v>1</v>
+      </c>
+      <c r="P147" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q147">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="148" spans="10:17">
+      <c r="J148" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="K148">
+        <v>0.01265822784810127</v>
+      </c>
+      <c r="L148">
+        <v>1</v>
+      </c>
+      <c r="M148">
+        <v>1</v>
+      </c>
+      <c r="N148">
+        <v>0</v>
+      </c>
+      <c r="O148">
+        <v>1</v>
+      </c>
+      <c r="P148" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q148">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="149" spans="10:17">
+      <c r="J149" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="K149">
+        <v>0.01123595505617977</v>
+      </c>
+      <c r="L149">
+        <v>1</v>
+      </c>
+      <c r="M149">
+        <v>1</v>
+      </c>
+      <c r="N149">
+        <v>0</v>
+      </c>
+      <c r="O149">
+        <v>1</v>
+      </c>
+      <c r="P149" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q149">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="150" spans="10:17">
+      <c r="J150" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="K150">
+        <v>0.01060070671378092</v>
+      </c>
+      <c r="L150">
+        <v>3</v>
+      </c>
+      <c r="M150">
+        <v>3</v>
+      </c>
+      <c r="N150">
+        <v>0</v>
+      </c>
+      <c r="O150">
+        <v>1</v>
+      </c>
+      <c r="P150" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q150">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="151" spans="10:17">
+      <c r="J151" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="K151">
+        <v>0.01054216867469879</v>
+      </c>
+      <c r="L151">
         <v>7</v>
       </c>
-      <c r="D128">
+      <c r="M151">
         <v>7</v>
       </c>
-      <c r="E128">
-        <v>1</v>
-      </c>
-      <c r="F128">
-        <v>0</v>
-      </c>
-      <c r="G128" t="b">
-        <v>0</v>
-      </c>
-      <c r="H128">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
-      <c r="A129" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B129">
-        <v>0.1538461538461539</v>
-      </c>
-      <c r="C129">
-        <v>12</v>
-      </c>
-      <c r="D129">
-        <v>12</v>
-      </c>
-      <c r="E129">
-        <v>1</v>
-      </c>
-      <c r="F129">
-        <v>0</v>
-      </c>
-      <c r="G129" t="b">
-        <v>0</v>
-      </c>
-      <c r="H129">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
-      <c r="A130" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B130">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="C130">
+      <c r="N151">
+        <v>0</v>
+      </c>
+      <c r="O151">
+        <v>1</v>
+      </c>
+      <c r="P151" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q151">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="152" spans="10:17">
+      <c r="J152" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="K152">
+        <v>0.01041666666666667</v>
+      </c>
+      <c r="L152">
+        <v>1</v>
+      </c>
+      <c r="M152">
+        <v>1</v>
+      </c>
+      <c r="N152">
+        <v>0</v>
+      </c>
+      <c r="O152">
+        <v>1</v>
+      </c>
+      <c r="P152" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q152">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="153" spans="10:17">
+      <c r="J153" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="K153">
+        <v>0.008695652173913044</v>
+      </c>
+      <c r="L153">
+        <v>1</v>
+      </c>
+      <c r="M153">
+        <v>1</v>
+      </c>
+      <c r="N153">
+        <v>0</v>
+      </c>
+      <c r="O153">
+        <v>1</v>
+      </c>
+      <c r="P153" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q153">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="154" spans="10:17">
+      <c r="J154" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="K154">
+        <v>0.006711409395973154</v>
+      </c>
+      <c r="L154">
+        <v>1</v>
+      </c>
+      <c r="M154">
+        <v>1</v>
+      </c>
+      <c r="N154">
+        <v>0</v>
+      </c>
+      <c r="O154">
+        <v>1</v>
+      </c>
+      <c r="P154" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q154">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="155" spans="10:17">
+      <c r="J155" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="K155">
+        <v>0.006688963210702341</v>
+      </c>
+      <c r="L155">
+        <v>2</v>
+      </c>
+      <c r="M155">
+        <v>2</v>
+      </c>
+      <c r="N155">
+        <v>0</v>
+      </c>
+      <c r="O155">
+        <v>1</v>
+      </c>
+      <c r="P155" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q155">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="156" spans="10:17">
+      <c r="J156" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="K156">
+        <v>0.006600660066006601</v>
+      </c>
+      <c r="L156">
+        <v>2</v>
+      </c>
+      <c r="M156">
+        <v>2</v>
+      </c>
+      <c r="N156">
+        <v>0</v>
+      </c>
+      <c r="O156">
+        <v>1</v>
+      </c>
+      <c r="P156" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q156">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="157" spans="10:17">
+      <c r="J157" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="K157">
+        <v>0.006329113924050633</v>
+      </c>
+      <c r="L157">
+        <v>1</v>
+      </c>
+      <c r="M157">
+        <v>1</v>
+      </c>
+      <c r="N157">
+        <v>0</v>
+      </c>
+      <c r="O157">
+        <v>1</v>
+      </c>
+      <c r="P157" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q157">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="158" spans="10:17">
+      <c r="J158" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="K158">
+        <v>0.006289308176100629</v>
+      </c>
+      <c r="L158">
+        <v>1</v>
+      </c>
+      <c r="M158">
+        <v>1</v>
+      </c>
+      <c r="N158">
+        <v>0</v>
+      </c>
+      <c r="O158">
+        <v>1</v>
+      </c>
+      <c r="P158" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q158">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="159" spans="10:17">
+      <c r="J159" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="K159">
+        <v>0.005934718100890208</v>
+      </c>
+      <c r="L159">
+        <v>2</v>
+      </c>
+      <c r="M159">
+        <v>2</v>
+      </c>
+      <c r="N159">
+        <v>0</v>
+      </c>
+      <c r="O159">
+        <v>1</v>
+      </c>
+      <c r="P159" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q159">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="160" spans="10:17">
+      <c r="J160" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="K160">
+        <v>0.005050505050505051</v>
+      </c>
+      <c r="L160">
+        <v>1</v>
+      </c>
+      <c r="M160">
+        <v>1</v>
+      </c>
+      <c r="N160">
+        <v>0</v>
+      </c>
+      <c r="O160">
+        <v>1</v>
+      </c>
+      <c r="P160" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q160">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="161" spans="10:17">
+      <c r="J161" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="K161">
+        <v>0.004672897196261682</v>
+      </c>
+      <c r="L161">
+        <v>1</v>
+      </c>
+      <c r="M161">
+        <v>1</v>
+      </c>
+      <c r="N161">
+        <v>0</v>
+      </c>
+      <c r="O161">
+        <v>1</v>
+      </c>
+      <c r="P161" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q161">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="162" spans="10:17">
+      <c r="J162" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="K162">
+        <v>0.004424778761061947</v>
+      </c>
+      <c r="L162">
+        <v>1</v>
+      </c>
+      <c r="M162">
+        <v>1</v>
+      </c>
+      <c r="N162">
+        <v>0</v>
+      </c>
+      <c r="O162">
+        <v>1</v>
+      </c>
+      <c r="P162" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q162">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="163" spans="10:17">
+      <c r="J163" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="K163">
+        <v>0.003703703703703704</v>
+      </c>
+      <c r="L163">
+        <v>2</v>
+      </c>
+      <c r="M163">
+        <v>2</v>
+      </c>
+      <c r="N163">
+        <v>0</v>
+      </c>
+      <c r="O163">
+        <v>1</v>
+      </c>
+      <c r="P163" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q163">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="164" spans="10:17">
+      <c r="J164" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="K164">
+        <v>0.003597122302158274</v>
+      </c>
+      <c r="L164">
+        <v>1</v>
+      </c>
+      <c r="M164">
+        <v>1</v>
+      </c>
+      <c r="N164">
+        <v>0</v>
+      </c>
+      <c r="O164">
+        <v>1</v>
+      </c>
+      <c r="P164" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q164">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="165" spans="10:17">
+      <c r="J165" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="K165">
+        <v>0.003416856492027335</v>
+      </c>
+      <c r="L165">
+        <v>3</v>
+      </c>
+      <c r="M165">
+        <v>3</v>
+      </c>
+      <c r="N165">
+        <v>0</v>
+      </c>
+      <c r="O165">
+        <v>1</v>
+      </c>
+      <c r="P165" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q165">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="166" spans="10:17">
+      <c r="J166" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="K166">
+        <v>0.003389830508474576</v>
+      </c>
+      <c r="L166">
+        <v>1</v>
+      </c>
+      <c r="M166">
+        <v>1</v>
+      </c>
+      <c r="N166">
+        <v>0</v>
+      </c>
+      <c r="O166">
+        <v>1</v>
+      </c>
+      <c r="P166" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q166">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="167" spans="10:17">
+      <c r="J167" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="K167">
+        <v>0.003174603174603175</v>
+      </c>
+      <c r="L167">
+        <v>1</v>
+      </c>
+      <c r="M167">
+        <v>1</v>
+      </c>
+      <c r="N167">
+        <v>0</v>
+      </c>
+      <c r="O167">
+        <v>1</v>
+      </c>
+      <c r="P167" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q167">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="168" spans="10:17">
+      <c r="J168" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="K168">
+        <v>0.002724795640326975</v>
+      </c>
+      <c r="L168">
+        <v>3</v>
+      </c>
+      <c r="M168">
+        <v>3</v>
+      </c>
+      <c r="N168">
+        <v>0</v>
+      </c>
+      <c r="O168">
+        <v>1</v>
+      </c>
+      <c r="P168" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q168">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="169" spans="10:17">
+      <c r="J169" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="K169">
+        <v>0.0022271714922049</v>
+      </c>
+      <c r="L169">
+        <v>1</v>
+      </c>
+      <c r="M169">
+        <v>1</v>
+      </c>
+      <c r="N169">
+        <v>0</v>
+      </c>
+      <c r="O169">
+        <v>1</v>
+      </c>
+      <c r="P169" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q169">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="170" spans="10:17">
+      <c r="J170" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="K170">
+        <v>0.002152080344332855</v>
+      </c>
+      <c r="L170">
+        <v>6</v>
+      </c>
+      <c r="M170">
+        <v>6</v>
+      </c>
+      <c r="N170">
+        <v>0</v>
+      </c>
+      <c r="O170">
+        <v>1</v>
+      </c>
+      <c r="P170" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q170">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="171" spans="10:17">
+      <c r="J171" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="K171">
+        <v>0.001818181818181818</v>
+      </c>
+      <c r="L171">
+        <v>1</v>
+      </c>
+      <c r="M171">
+        <v>1</v>
+      </c>
+      <c r="N171">
+        <v>0</v>
+      </c>
+      <c r="O171">
+        <v>1</v>
+      </c>
+      <c r="P171" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q171">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="172" spans="10:17">
+      <c r="J172" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="K172">
+        <v>0.001749781277340333</v>
+      </c>
+      <c r="L172">
+        <v>2</v>
+      </c>
+      <c r="M172">
+        <v>2</v>
+      </c>
+      <c r="N172">
+        <v>0</v>
+      </c>
+      <c r="O172">
+        <v>1</v>
+      </c>
+      <c r="P172" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q172">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="173" spans="10:17">
+      <c r="J173" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="K173">
+        <v>0.001743679163034002</v>
+      </c>
+      <c r="L173">
+        <v>2</v>
+      </c>
+      <c r="M173">
+        <v>2</v>
+      </c>
+      <c r="N173">
+        <v>0</v>
+      </c>
+      <c r="O173">
+        <v>1</v>
+      </c>
+      <c r="P173" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q173">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="174" spans="10:17">
+      <c r="J174" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="K174">
+        <v>0.001623376623376623</v>
+      </c>
+      <c r="L174">
+        <v>1</v>
+      </c>
+      <c r="M174">
+        <v>1</v>
+      </c>
+      <c r="N174">
+        <v>0</v>
+      </c>
+      <c r="O174">
+        <v>1</v>
+      </c>
+      <c r="P174" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q174">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="175" spans="10:17">
+      <c r="J175" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="K175">
+        <v>0.001584786053882726</v>
+      </c>
+      <c r="L175">
+        <v>1</v>
+      </c>
+      <c r="M175">
+        <v>1</v>
+      </c>
+      <c r="N175">
+        <v>0</v>
+      </c>
+      <c r="O175">
+        <v>1</v>
+      </c>
+      <c r="P175" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q175">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="176" spans="10:17">
+      <c r="J176" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="K176">
+        <v>0.001404494382022472</v>
+      </c>
+      <c r="L176">
+        <v>1</v>
+      </c>
+      <c r="M176">
+        <v>1</v>
+      </c>
+      <c r="N176">
+        <v>0</v>
+      </c>
+      <c r="O176">
+        <v>1</v>
+      </c>
+      <c r="P176" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q176">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="177" spans="10:17">
+      <c r="J177" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="K177">
+        <v>0.001050420168067227</v>
+      </c>
+      <c r="L177">
+        <v>1</v>
+      </c>
+      <c r="M177">
+        <v>1</v>
+      </c>
+      <c r="N177">
+        <v>0</v>
+      </c>
+      <c r="O177">
+        <v>1</v>
+      </c>
+      <c r="P177" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q177">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="178" spans="10:17">
+      <c r="J178" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="K178">
+        <v>0.00104602510460251</v>
+      </c>
+      <c r="L178">
+        <v>1</v>
+      </c>
+      <c r="M178">
+        <v>1</v>
+      </c>
+      <c r="N178">
+        <v>0</v>
+      </c>
+      <c r="O178">
+        <v>1</v>
+      </c>
+      <c r="P178" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q178">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="179" spans="10:17">
+      <c r="J179" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="K179">
+        <v>0.001018329938900204</v>
+      </c>
+      <c r="L179">
         <v>4</v>
       </c>
-      <c r="D130">
+      <c r="M179">
         <v>4</v>
       </c>
-      <c r="E130">
-        <v>1</v>
-      </c>
-      <c r="F130">
-        <v>0</v>
-      </c>
-      <c r="G130" t="b">
-        <v>0</v>
-      </c>
-      <c r="H130">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
-      <c r="A131" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B131">
-        <v>0.1363636363636364</v>
-      </c>
-      <c r="C131">
-        <v>3</v>
-      </c>
-      <c r="D131">
-        <v>3</v>
-      </c>
-      <c r="E131">
-        <v>1</v>
-      </c>
-      <c r="F131">
-        <v>0</v>
-      </c>
-      <c r="G131" t="b">
-        <v>0</v>
-      </c>
-      <c r="H131">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
-      <c r="A132" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B132">
-        <v>0.1363636363636364</v>
-      </c>
-      <c r="C132">
-        <v>3</v>
-      </c>
-      <c r="D132">
-        <v>3</v>
-      </c>
-      <c r="E132">
-        <v>1</v>
-      </c>
-      <c r="F132">
-        <v>0</v>
-      </c>
-      <c r="G132" t="b">
-        <v>0</v>
-      </c>
-      <c r="H132">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
-      <c r="A133" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B133">
-        <v>0.1333333333333333</v>
-      </c>
-      <c r="C133">
-        <v>2</v>
-      </c>
-      <c r="D133">
-        <v>2</v>
-      </c>
-      <c r="E133">
-        <v>1</v>
-      </c>
-      <c r="F133">
-        <v>0</v>
-      </c>
-      <c r="G133" t="b">
-        <v>0</v>
-      </c>
-      <c r="H133">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
-      <c r="A134" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B134">
-        <v>0.12</v>
-      </c>
-      <c r="C134">
-        <v>3</v>
-      </c>
-      <c r="D134">
-        <v>3</v>
-      </c>
-      <c r="E134">
-        <v>1</v>
-      </c>
-      <c r="F134">
-        <v>0</v>
-      </c>
-      <c r="G134" t="b">
-        <v>0</v>
-      </c>
-      <c r="H134">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
-      <c r="A135" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B135">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="C135">
-        <v>1</v>
-      </c>
-      <c r="D135">
-        <v>1</v>
-      </c>
-      <c r="E135">
-        <v>1</v>
-      </c>
-      <c r="F135">
-        <v>0</v>
-      </c>
-      <c r="G135" t="b">
-        <v>0</v>
-      </c>
-      <c r="H135">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
-      <c r="A136" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B136">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="C136">
-        <v>1</v>
-      </c>
-      <c r="D136">
-        <v>1</v>
-      </c>
-      <c r="E136">
-        <v>1</v>
-      </c>
-      <c r="F136">
-        <v>0</v>
-      </c>
-      <c r="G136" t="b">
-        <v>0</v>
-      </c>
-      <c r="H136">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
-      <c r="A137" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B137">
-        <v>0.1052631578947368</v>
-      </c>
-      <c r="C137">
-        <v>2</v>
-      </c>
-      <c r="D137">
-        <v>2</v>
-      </c>
-      <c r="E137">
-        <v>1</v>
-      </c>
-      <c r="F137">
-        <v>0</v>
-      </c>
-      <c r="G137" t="b">
-        <v>0</v>
-      </c>
-      <c r="H137">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
-      <c r="A138" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B138">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="C138">
-        <v>1</v>
-      </c>
-      <c r="D138">
-        <v>1</v>
-      </c>
-      <c r="E138">
-        <v>1</v>
-      </c>
-      <c r="F138">
-        <v>0</v>
-      </c>
-      <c r="G138" t="b">
-        <v>0</v>
-      </c>
-      <c r="H138">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
-      <c r="A139" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B139">
-        <v>0.08571428571428572</v>
-      </c>
-      <c r="C139">
-        <v>3</v>
-      </c>
-      <c r="D139">
-        <v>3</v>
-      </c>
-      <c r="E139">
-        <v>1</v>
-      </c>
-      <c r="F139">
-        <v>0</v>
-      </c>
-      <c r="G139" t="b">
-        <v>0</v>
-      </c>
-      <c r="H139">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
-      <c r="A140" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B140">
-        <v>0.08571428571428572</v>
-      </c>
-      <c r="C140">
-        <v>3</v>
-      </c>
-      <c r="D140">
-        <v>3</v>
-      </c>
-      <c r="E140">
-        <v>1</v>
-      </c>
-      <c r="F140">
-        <v>0</v>
-      </c>
-      <c r="G140" t="b">
-        <v>0</v>
-      </c>
-      <c r="H140">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
-      <c r="A141" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B141">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="C141">
-        <v>1</v>
-      </c>
-      <c r="D141">
-        <v>1</v>
-      </c>
-      <c r="E141">
-        <v>1</v>
-      </c>
-      <c r="F141">
-        <v>0</v>
-      </c>
-      <c r="G141" t="b">
-        <v>0</v>
-      </c>
-      <c r="H141">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
-      <c r="A142" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B142">
-        <v>0.05263157894736842</v>
-      </c>
-      <c r="C142">
-        <v>1</v>
-      </c>
-      <c r="D142">
-        <v>1</v>
-      </c>
-      <c r="E142">
-        <v>1</v>
-      </c>
-      <c r="F142">
-        <v>0</v>
-      </c>
-      <c r="G142" t="b">
-        <v>0</v>
-      </c>
-      <c r="H142">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
-      <c r="A143" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B143">
-        <v>0.03010033444816054</v>
-      </c>
-      <c r="C143">
-        <v>9</v>
-      </c>
-      <c r="D143">
-        <v>9</v>
-      </c>
-      <c r="E143">
-        <v>1</v>
-      </c>
-      <c r="F143">
-        <v>0</v>
-      </c>
-      <c r="G143" t="b">
-        <v>0</v>
-      </c>
-      <c r="H143">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
-      <c r="A144" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B144">
-        <v>0.02777777777777778</v>
-      </c>
-      <c r="C144">
-        <v>1</v>
-      </c>
-      <c r="D144">
-        <v>1</v>
-      </c>
-      <c r="E144">
-        <v>1</v>
-      </c>
-      <c r="F144">
-        <v>0</v>
-      </c>
-      <c r="G144" t="b">
-        <v>0</v>
-      </c>
-      <c r="H144">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
-      <c r="A145" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B145">
-        <v>0.02564102564102564</v>
-      </c>
-      <c r="C145">
-        <v>1</v>
-      </c>
-      <c r="D145">
-        <v>1</v>
-      </c>
-      <c r="E145">
-        <v>1</v>
-      </c>
-      <c r="F145">
-        <v>0</v>
-      </c>
-      <c r="G145" t="b">
-        <v>0</v>
-      </c>
-      <c r="H145">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
-      <c r="A146" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B146">
-        <v>0.01342281879194631</v>
-      </c>
-      <c r="C146">
-        <v>2</v>
-      </c>
-      <c r="D146">
-        <v>2</v>
-      </c>
-      <c r="E146">
-        <v>1</v>
-      </c>
-      <c r="F146">
-        <v>0</v>
-      </c>
-      <c r="G146" t="b">
-        <v>0</v>
-      </c>
-      <c r="H146">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
-      <c r="A147" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B147">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="C147">
-        <v>1</v>
-      </c>
-      <c r="D147">
-        <v>1</v>
-      </c>
-      <c r="E147">
-        <v>1</v>
-      </c>
-      <c r="F147">
-        <v>0</v>
-      </c>
-      <c r="G147" t="b">
-        <v>0</v>
-      </c>
-      <c r="H147">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
-      <c r="A148" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B148">
-        <v>0.003759398496240601</v>
-      </c>
-      <c r="C148">
-        <v>1</v>
-      </c>
-      <c r="D148">
-        <v>1</v>
-      </c>
-      <c r="E148">
-        <v>1</v>
-      </c>
-      <c r="F148">
-        <v>0</v>
-      </c>
-      <c r="G148" t="b">
-        <v>0</v>
-      </c>
-      <c r="H148">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
-      <c r="A149" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B149">
-        <v>0.001076040172166427</v>
-      </c>
-      <c r="C149">
-        <v>3</v>
-      </c>
-      <c r="D149">
-        <v>3</v>
-      </c>
-      <c r="E149">
-        <v>1</v>
-      </c>
-      <c r="F149">
-        <v>0</v>
-      </c>
-      <c r="G149" t="b">
-        <v>0</v>
-      </c>
-      <c r="H149">
-        <v>2785</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
-      <c r="A150" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B150">
-        <v>0.001041666666666667</v>
-      </c>
-      <c r="C150">
-        <v>1</v>
-      </c>
-      <c r="D150">
-        <v>3</v>
-      </c>
-      <c r="E150">
-        <v>0.33</v>
-      </c>
-      <c r="F150">
-        <v>0.6699999999999999</v>
-      </c>
-      <c r="G150" t="b">
-        <v>1</v>
-      </c>
-      <c r="H150">
-        <v>959</v>
+      <c r="N179">
+        <v>0</v>
+      </c>
+      <c r="O179">
+        <v>1</v>
+      </c>
+      <c r="P179" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q179">
+        <v>3924</v>
       </c>
     </row>
   </sheetData>
